--- a/aws_onefs/Dell PowerScale OneFS on AWS Deployment Note.xlsx
+++ b/aws_onefs/Dell PowerScale OneFS on AWS Deployment Note.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-22.04\home\stever4\git\how_to\aws_onefs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06449557-B8CC-456A-AFBF-FE72C7E269E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21126989-D755-4181-ADC6-95E4980A5D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{F2EC63C7-1F88-4BB6-96C2-BA227F95AE33}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>AWS account ID</t>
   </si>
   <si>
-    <t>551948851026</t>
-  </si>
-  <si>
     <t>AWS region</t>
   </si>
   <si>
@@ -55,9 +52,6 @@
   </si>
   <si>
     <t>AWS VPC ID</t>
-  </si>
-  <si>
-    <t>vpc-06639db65d7446720</t>
   </si>
   <si>
     <t>OneFS cluster frontend network
@@ -67,43 +61,22 @@
     <t>AWS Subnet ID</t>
   </si>
   <si>
-    <t>subnet-058548a2c6df9591c</t>
-  </si>
-  <si>
     <t>IPv4 CIDR</t>
   </si>
   <si>
-    <t>10.0.0.0/28</t>
-  </si>
-  <si>
     <t>IP range for OneFS cluster</t>
   </si>
   <si>
-    <t>10.0.0.4 - 10.0.0.9</t>
-  </si>
-  <si>
     <t>First node IP</t>
   </si>
   <si>
-    <t>10.0.0.4</t>
-  </si>
-  <si>
     <t>Second node IP</t>
   </si>
   <si>
-    <t>10.0.0.5</t>
-  </si>
-  <si>
     <t>Third node IP</t>
   </si>
   <si>
-    <t>10.0.0.6</t>
-  </si>
-  <si>
     <t>Fourth node IP</t>
-  </si>
-  <si>
-    <t>10.0.0.7</t>
   </si>
   <si>
     <t>OneFS cluster backend network
@@ -113,24 +86,6 @@
     <t>subnet-0dc84f8a0a6f8dd8d</t>
   </si>
   <si>
-    <t>10.0.0.16/28</t>
-  </si>
-  <si>
-    <t>10.0.0.20 - 10.0.0.25</t>
-  </si>
-  <si>
-    <t>10.0.0.20</t>
-  </si>
-  <si>
-    <t>10.0.0.21</t>
-  </si>
-  <si>
-    <t>10.0.0.22</t>
-  </si>
-  <si>
-    <t>10.0.0.23</t>
-  </si>
-  <si>
     <t>OneFS cluster name</t>
   </si>
   <si>
@@ -245,18 +200,6 @@
     <t>Sixth node IP</t>
   </si>
   <si>
-    <t>10.0.0.8</t>
-  </si>
-  <si>
-    <t>10.0.0.9</t>
-  </si>
-  <si>
-    <t>10.0.0.24</t>
-  </si>
-  <si>
-    <t>10.0.0.25</t>
-  </si>
-  <si>
     <t>Fifth node external network interface ID</t>
   </si>
   <si>
@@ -276,6 +219,63 @@
   </si>
   <si>
     <t xml:space="preserve">Example </t>
+  </si>
+  <si>
+    <t>1234567890123</t>
+  </si>
+  <si>
+    <t>vpc-02121348778</t>
+  </si>
+  <si>
+    <t>subnet-058548a2c6323231c</t>
+  </si>
+  <si>
+    <t>10.0.2.0/24</t>
+  </si>
+  <si>
+    <t>10.0.2.4 - 10.0.2.9</t>
+  </si>
+  <si>
+    <t>10.0.2.4</t>
+  </si>
+  <si>
+    <t>10.0.2.5</t>
+  </si>
+  <si>
+    <t>10.0.2.6</t>
+  </si>
+  <si>
+    <t>10.0.2.7</t>
+  </si>
+  <si>
+    <t>10.0.2.8</t>
+  </si>
+  <si>
+    <t>10.0.2.9</t>
+  </si>
+  <si>
+    <t>10.0.3.0/24</t>
+  </si>
+  <si>
+    <t>10.0.3.20 - 10.0.3.25</t>
+  </si>
+  <si>
+    <t>10.0.3.20</t>
+  </si>
+  <si>
+    <t>10.0.3.21</t>
+  </si>
+  <si>
+    <t>10.0.3.22</t>
+  </si>
+  <si>
+    <t>10.0.3.23</t>
+  </si>
+  <si>
+    <t>10.0.3.24</t>
+  </si>
+  <si>
+    <t>10.0.3.25</t>
   </si>
 </sst>
 </file>
@@ -406,7 +406,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -449,15 +449,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -467,14 +476,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -793,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92B9FFB-F326-43BA-90A1-4470DE69A5E6}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,291 +811,291 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D1" s="4" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="7"/>
       <c r="D2" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="9"/>
       <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="25"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="9"/>
       <c r="D4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="25"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="9"/>
       <c r="D5" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="16" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="2" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="16" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="2" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="2" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="5" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="3" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>23</v>
+      <c r="A15" s="24" t="s">
+        <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="2" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="2" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="14" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="26"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="18"/>
       <c r="D19" s="2" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="14" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="2" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="26"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="18"/>
       <c r="D21" s="2" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="5" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="5" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="20"/>
+      <c r="A24" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="22"/>
       <c r="C24" s="8"/>
       <c r="D24" s="2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="20"/>
+      <c r="A25" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="22"/>
       <c r="C25" s="8"/>
       <c r="D25" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="20"/>
+      <c r="A26" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="22"/>
       <c r="C26" s="8"/>
       <c r="D26" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="20"/>
+      <c r="A27" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="22"/>
       <c r="C27" s="8"/>
       <c r="D27" s="2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="20"/>
+      <c r="A28" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="22"/>
       <c r="C28" s="8"/>
       <c r="D28" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="20"/>
+      <c r="A29" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="22"/>
       <c r="C29" s="8"/>
       <c r="D29" s="2" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E29">
         <f>2*6*4</f>
@@ -1100,13 +1103,13 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="20"/>
+      <c r="A30" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="22"/>
       <c r="C30" s="8"/>
       <c r="D30" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E30">
         <f>16*6*4</f>
@@ -1114,168 +1117,172 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="20"/>
+      <c r="A31" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="22"/>
       <c r="C31" s="10"/>
       <c r="D31" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="20"/>
+      <c r="A32" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="22"/>
       <c r="C32" s="8"/>
       <c r="D32" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="20"/>
+      <c r="A33" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="22"/>
       <c r="C33" s="10"/>
       <c r="D33" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="20"/>
+      <c r="A34" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="22"/>
       <c r="C34" s="11"/>
       <c r="D34" s="2" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="23"/>
+      <c r="A35" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="26"/>
       <c r="C35" s="12"/>
       <c r="D35" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" s="20"/>
+      <c r="A36" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="22"/>
       <c r="C36" s="11"/>
       <c r="D36" s="2" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37" s="18"/>
+      <c r="A37" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="23"/>
       <c r="C37" s="13"/>
       <c r="D37" s="2" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" s="17"/>
+      <c r="A38" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="27"/>
       <c r="C38" s="11"/>
       <c r="D38" s="2" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B39" s="18"/>
+      <c r="A39" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="23"/>
       <c r="C39" s="12"/>
       <c r="D39" s="2" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B40" s="17"/>
+      <c r="A40" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="27"/>
       <c r="C40" s="11"/>
       <c r="D40" s="2" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B41" s="18"/>
+      <c r="A41" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="23"/>
       <c r="C41" s="13"/>
       <c r="D41" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B42" s="17"/>
+      <c r="A42" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="27"/>
       <c r="C42" s="8"/>
       <c r="D42" s="2" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="B43" s="17"/>
+      <c r="A43" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="27"/>
       <c r="C43" s="8"/>
       <c r="D43" s="2" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B44" s="17"/>
+      <c r="A44" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="27"/>
       <c r="C44" s="8"/>
       <c r="D44" s="2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B45" s="17"/>
+      <c r="A45" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="27"/>
       <c r="C45" s="8"/>
       <c r="D45" s="2"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B46" s="17"/>
+      <c r="A46" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="27"/>
       <c r="C46" s="8"/>
       <c r="D46" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A39:B39"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A31:B31"/>
@@ -1291,15 +1298,11 @@
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A24:B24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aws_onefs/Dell PowerScale OneFS on AWS Deployment Note.xlsx
+++ b/aws_onefs/Dell PowerScale OneFS on AWS Deployment Note.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-22.04\home\stever4\git\how_to\aws_onefs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dell-my.sharepoint.com/personal/russ_stevenson_dell_com/Documents/CAE/9.6-AWS-APEX-FS/deployment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21126989-D755-4181-ADC6-95E4980A5D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{21126989-D755-4181-ADC6-95E4980A5D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED5D0DA0-A06C-459D-A7F2-C4C3C27EB039}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{F2EC63C7-1F88-4BB6-96C2-BA227F95AE33}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="81">
   <si>
     <t>AWS account ID</t>
   </si>
@@ -58,9 +58,6 @@
 (external subnet)</t>
   </si>
   <si>
-    <t>AWS Subnet ID</t>
-  </si>
-  <si>
     <t>IPv4 CIDR</t>
   </si>
   <si>
@@ -276,6 +273,12 @@
   </si>
   <si>
     <t>10.0.3.25</t>
+  </si>
+  <si>
+    <t>AWS external Subnet ID</t>
+  </si>
+  <si>
+    <t>AWS internal Subnet ID</t>
   </si>
 </sst>
 </file>
@@ -352,7 +355,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -401,12 +404,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -452,33 +470,40 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -796,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92B9FFB-F326-43BA-90A1-4470DE69A5E6}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,291 +836,291 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D1" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="7"/>
       <c r="D2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="9"/>
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="20"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="9"/>
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="9"/>
       <c r="D5" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="2" t="s">
-        <v>63</v>
+      <c r="B6" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="29" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="24"/>
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
       <c r="B11" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
       <c r="B12" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
       <c r="B13" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24"/>
       <c r="B14" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
       <c r="B19" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
       <c r="B20" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="24"/>
       <c r="B21" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="24"/>
       <c r="B22" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="24"/>
       <c r="B23" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="22"/>
+      <c r="A24" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="23"/>
       <c r="C24" s="8"/>
       <c r="D24" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="22"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="8"/>
       <c r="D25" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="22"/>
+      <c r="A26" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="23"/>
       <c r="C26" s="8"/>
       <c r="D26" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="22"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="8"/>
       <c r="D27" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="22"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="8"/>
       <c r="D28" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="22"/>
+      <c r="A29" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="23"/>
       <c r="C29" s="8"/>
       <c r="D29" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E29">
         <f>2*6*4</f>
@@ -1103,13 +1128,13 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="22"/>
+      <c r="A30" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="23"/>
       <c r="C30" s="8"/>
       <c r="D30" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E30">
         <f>16*6*4</f>
@@ -1117,172 +1142,168 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="22"/>
+      <c r="A31" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="23"/>
       <c r="C31" s="10"/>
       <c r="D31" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="22"/>
+      <c r="B32" s="23"/>
       <c r="C32" s="8"/>
       <c r="D32" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="22" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="22"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="10"/>
       <c r="D33" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="22"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="11"/>
       <c r="D34" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" s="26"/>
       <c r="C35" s="12"/>
       <c r="D35" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="22" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" s="22"/>
+      <c r="B36" s="23"/>
       <c r="C36" s="11"/>
       <c r="D36" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="23"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="13"/>
       <c r="D37" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="20" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="27"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="11"/>
       <c r="D38" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="23"/>
+      <c r="B39" s="21"/>
       <c r="C39" s="12"/>
       <c r="D39" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="20" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="27"/>
+      <c r="B40" s="20"/>
       <c r="C40" s="11"/>
       <c r="D40" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="21" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="23"/>
+      <c r="B41" s="21"/>
       <c r="C41" s="13"/>
       <c r="D41" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="20" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" s="27"/>
+      <c r="B42" s="20"/>
       <c r="C42" s="8"/>
       <c r="D42" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B43" s="27"/>
+      <c r="A43" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="20"/>
       <c r="C43" s="8"/>
       <c r="D43" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="B44" s="27"/>
+      <c r="A44" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="20"/>
       <c r="C44" s="8"/>
       <c r="D44" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B45" s="27"/>
+      <c r="A45" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" s="20"/>
       <c r="C45" s="8"/>
       <c r="D45" s="2"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B46" s="27"/>
+      <c r="A46" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="20"/>
       <c r="C46" s="8"/>
       <c r="D46" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A24:B24"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A31:B31"/>
@@ -1298,11 +1319,15 @@
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A39:B39"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
